--- a/docs/cems/cems-metadata.xlsx
+++ b/docs/cems/cems-metadata.xlsx
@@ -668,7 +668,7 @@
     <t>assay_type</t>
   </si>
   <si>
-    <t>CZE-MS</t>
+    <t>CE-MS</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -1369,7 +1369,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CZE-MS." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CE-MS." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from analyte_class list." sqref="M2:M1048576">

--- a/docs/cems/cems-metadata.xlsx
+++ b/docs/cems/cems-metadata.xlsx
@@ -212,7 +212,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/cems/cems-metadata.xlsx
+++ b/docs/cems/cems-metadata.xlsx
@@ -303,7 +303,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This is the MS1 resolving power. This is a unitless value often calculated as m/∆m where ∆m is the FWHM for a given peak with a certain m/z (m).</t>
+          <t>The MS1 resolving power defined as m/∆m where ∆m is the FWHM for a given peak with a specified m/z (m). (unitless)</t>
         </r>
       </text>
     </comment>

--- a/docs/cems/cems-metadata.xlsx
+++ b/docs/cems/cems-metadata.xlsx
@@ -212,7 +212,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>
@@ -303,7 +303,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This is the MS1 resolving power. This is a unitless value often calculated as m/∆m where ∆m is the FWHM for a given peak with a certain m/z (m).</t>
+          <t>The MS1 resolving power defined as m/∆m where ∆m is the FWHM for a given peak with a specified m/z (m). (unitless)</t>
         </r>
       </text>
     </comment>

--- a/docs/cems/cems-metadata.xlsx
+++ b/docs/cems/cems-metadata.xlsx
@@ -12,17 +12,18 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
-    <sheet name="polarity list" sheetId="7" r:id="rId7"/>
-    <sheet name="ion_mobility list" sheetId="8" r:id="rId8"/>
-    <sheet name="data_collection_mode list" sheetId="9" r:id="rId9"/>
-    <sheet name="ms_scan_mode list" sheetId="10" r:id="rId10"/>
-    <sheet name="ce_interface list" sheetId="11" r:id="rId11"/>
-    <sheet name="ce_electroosmotic_flow list" sheetId="12" r:id="rId12"/>
-    <sheet name="spatial_type list" sheetId="13" r:id="rId13"/>
-    <sheet name="spatial_sampling_type list" sheetId="14" r:id="rId14"/>
-    <sheet name="resolution_x_unit list" sheetId="15" r:id="rId15"/>
-    <sheet name="resolution_y_unit list" sheetId="16" r:id="rId16"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="ms_source list" sheetId="7" r:id="rId7"/>
+    <sheet name="polarity list" sheetId="8" r:id="rId8"/>
+    <sheet name="ion_mobility list" sheetId="9" r:id="rId9"/>
+    <sheet name="data_collection_mode list" sheetId="10" r:id="rId10"/>
+    <sheet name="ms_scan_mode list" sheetId="11" r:id="rId11"/>
+    <sheet name="ce_interface list" sheetId="12" r:id="rId12"/>
+    <sheet name="ce_electroosmotic_flow list" sheetId="13" r:id="rId13"/>
+    <sheet name="spatial_type list" sheetId="14" r:id="rId14"/>
+    <sheet name="spatial_sampling_type list" sheetId="15" r:id="rId15"/>
+    <sheet name="resolution_x_unit list" sheetId="16" r:id="rId16"/>
+    <sheet name="resolution_y_unit list" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -624,7 +625,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>version</t>
   </si>
@@ -693,6 +694,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -1268,97 +1275,97 @@
         <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1375,8 +1382,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from analyte_class list." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nanoflex / ESI." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$2</formula1>
@@ -1442,6 +1449,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1451,17 +1481,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1479,12 +1509,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1502,17 +1532,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1530,45 +1560,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1586,12 +1593,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1609,12 +1616,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1729,12 +1759,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1752,12 +1782,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1766,6 +1796,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1775,50 +1828,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cems/cems-metadata.xlsx
+++ b/docs/cems/cems-metadata.xlsx
@@ -173,7 +173,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>

--- a/docs/cems/cems-metadata.xlsx
+++ b/docs/cems/cems-metadata.xlsx
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>version</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>positive ion mode</t>
+  </si>
+  <si>
+    <t>negative and positive ion mode</t>
   </si>
   <si>
     <t>mz_range_low_value</t>
@@ -1280,85 +1283,85 @@
         <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1381,8 +1384,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nanoflex / ESI." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
-      <formula1>'polarity list'!$A$1:$A$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode / negative and positive ion mode." sqref="R2:R1048576">
+      <formula1>'polarity list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
@@ -1451,17 +1454,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1479,12 +1482,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1502,17 +1505,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1530,22 +1533,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1563,12 +1566,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1586,12 +1589,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1609,12 +1612,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1758,6 +1761,11 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1775,27 +1783,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1813,12 +1821,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cems/cems-metadata.xlsx
+++ b/docs/cems/cems-metadata.xlsx
@@ -342,7 +342,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition) or DIA (Data-independent acquisition).</t>
+          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition), DIA (Data-independent acquisition), MRM (multiple reaction monitoring), or PRM (parallel reaction monitoring).</t>
         </r>
       </text>
     </comment>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>version</t>
   </si>
@@ -759,6 +759,12 @@
   </si>
   <si>
     <t>DIA</t>
+  </si>
+  <si>
+    <t>MRM</t>
+  </si>
+  <si>
+    <t>PRM</t>
   </si>
   <si>
     <t>ms_scan_mode</t>
@@ -1301,67 +1307,67 @@
         <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1406,8 +1412,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIMS." sqref="W2:W1048576">
       <formula1>'ion_mobility list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DDA / DIA." sqref="X2:X1048576">
-      <formula1>'data_collection_mode list'!$A$1:$A$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DDA / DIA / MRM / PRM." sqref="X2:X1048576">
+      <formula1>'data_collection_mode list'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MS / MS/MS / MS3." sqref="Y2:Y1048576">
       <formula1>'ms_scan_mode list'!$A$1:$A$3</formula1>
@@ -1454,17 +1460,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1482,12 +1488,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1505,17 +1511,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1533,22 +1539,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1566,12 +1572,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1589,12 +1595,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1612,12 +1618,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1829,6 +1835,16 @@
         <v>44</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
